--- a/GP2双光栅测量/数据.xlsx
+++ b/GP2双光栅测量/数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hll\Desktop\EX\GP\GP2双光栅测量\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AEB18B-769A-438E-9488-0A3A3AD08162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2F4AA3-5120-407D-9A7C-78BEB3982543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F1:K15"/>
+  <dimension ref="F1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G24" sqref="G24:T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -676,6 +676,220 @@
         <v>1.2E-2</v>
       </c>
     </row>
+    <row r="23" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>505.3</v>
+      </c>
+      <c r="H23">
+        <v>505.4</v>
+      </c>
+      <c r="I23">
+        <v>505.5</v>
+      </c>
+      <c r="J23">
+        <v>505.6</v>
+      </c>
+      <c r="K23">
+        <v>505.7</v>
+      </c>
+      <c r="L23">
+        <v>505.8</v>
+      </c>
+      <c r="M23">
+        <v>505.9</v>
+      </c>
+      <c r="N23">
+        <v>506</v>
+      </c>
+      <c r="O23">
+        <v>506.1</v>
+      </c>
+      <c r="P23">
+        <v>506.2</v>
+      </c>
+      <c r="Q23">
+        <v>506.3</v>
+      </c>
+      <c r="R23">
+        <v>506.4</v>
+      </c>
+      <c r="S23">
+        <v>506.5</v>
+      </c>
+      <c r="T23">
+        <v>506.6</v>
+      </c>
+    </row>
+    <row r="24" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="H24">
+        <v>4.7249999999999996</v>
+      </c>
+      <c r="I24">
+        <v>10.625</v>
+      </c>
+      <c r="J24">
+        <v>18.77</v>
+      </c>
+      <c r="K24">
+        <v>9.27</v>
+      </c>
+      <c r="L24">
+        <v>5.26</v>
+      </c>
+      <c r="M24">
+        <v>3.7850000000000001</v>
+      </c>
+      <c r="N24">
+        <v>2.7250000000000001</v>
+      </c>
+      <c r="O24">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="P24">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="Q24">
+        <v>1.625</v>
+      </c>
+      <c r="R24">
+        <v>1.2649999999999999</v>
+      </c>
+      <c r="S24">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="T24">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="28" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <f>H2*100</f>
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="I28">
+        <v>3.2250000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <f t="shared" ref="G29:G41" si="2">H3*100</f>
+        <v>4.7249999999999996</v>
+      </c>
+      <c r="I29">
+        <v>4.7249999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>10.625</v>
+      </c>
+      <c r="I30">
+        <v>10.625</v>
+      </c>
+    </row>
+    <row r="31" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>18.77</v>
+      </c>
+      <c r="I31">
+        <v>18.77</v>
+      </c>
+    </row>
+    <row r="32" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>9.27</v>
+      </c>
+      <c r="I32">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>5.26</v>
+      </c>
+      <c r="I33">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>3.7850000000000001</v>
+      </c>
+      <c r="I34">
+        <v>3.7850000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>2.7250000000000001</v>
+      </c>
+      <c r="I35">
+        <v>2.7250000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="I36">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="I37">
+        <v>1.7749999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>1.625</v>
+      </c>
+      <c r="I38">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="39" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>1.2649999999999999</v>
+      </c>
+      <c r="I39">
+        <v>1.2649999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="I40">
+        <v>1.2250000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="I41">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
